--- a/AllResults.xlsx
+++ b/AllResults.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MLPadelProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/edouard_lambert_student_junia_com/Documents/Documents/GitHub/MLPadelProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{733CA18D-65E2-44C2-B84A-8D082777C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1EF8FDCB-DCE0-44BB-A76A-76766C159E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{E0BC9278-E87C-4ABE-AEC8-50EB052ECBFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E0BC9278-E87C-4ABE-AEC8-50EB052ECBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
     <sheet name="Vibration" sheetId="2" r:id="rId2"/>
     <sheet name="Both" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="33">
   <si>
     <t>ML Model type</t>
   </si>
@@ -114,6 +115,30 @@
   <si>
     <t>Vibration</t>
   </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ML Model type2</t>
+  </si>
+  <si>
+    <t>Objectives2</t>
+  </si>
+  <si>
+    <t>Features2</t>
+  </si>
+  <si>
+    <t>Dataset2</t>
+  </si>
+  <si>
+    <t>Training Accuracy2</t>
+  </si>
+  <si>
+    <t>Test Accuracy2</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +195,264 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -224,6 +506,33 @@
     <tableColumn id="4" xr3:uid="{73FC0F59-68FB-4E2F-97D2-45F012509958}" name="Features"/>
     <tableColumn id="5" xr3:uid="{DA7EFC2A-7374-4B27-8198-33DDE58D1FB5}" name="Training Accuracy" dataCellStyle="Pourcentage"/>
     <tableColumn id="6" xr3:uid="{BAB1B10B-B792-4D8E-BA2F-C0B9A19A2C4A}" name="Test Accuracy" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3B55406-48F2-4166-8031-910C5D7F408B}" name="Tableau26" displayName="Tableau26" ref="A1:P20" totalsRowShown="0">
+  <autoFilter ref="A1:P20" xr:uid="{C3B55406-48F2-4166-8031-910C5D7F408B}"/>
+  <tableColumns count="16">
+    <tableColumn id="17" xr3:uid="{B276A814-0DBC-44D7-BFA1-4656129042B9}" name="Sound"/>
+    <tableColumn id="1" xr3:uid="{471D9E70-13BC-45BC-9B71-96894CC39644}" name="ML Model type"/>
+    <tableColumn id="2" xr3:uid="{BC3FA30B-9C67-4A7C-A5EC-8DEF88FDF56C}" name="Objectives"/>
+    <tableColumn id="3" xr3:uid="{B50B54CA-A9B5-4F4E-AF33-437054E587AE}" name="Dataset"/>
+    <tableColumn id="4" xr3:uid="{6BB42DE0-D18B-4149-8BDC-685B6D59952F}" name="Features"/>
+    <tableColumn id="5" xr3:uid="{3A4B2F57-A2DE-415C-A288-9CD8B095C2B2}" name="Training Accuracy" totalsRowDxfId="13" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="6" xr3:uid="{769D0F97-430F-47BF-8DB8-E32559B0094E}" name="Test Accuracy" totalsRowDxfId="12" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="25" xr3:uid="{14F6D664-31E4-45DF-99B9-EAD211DB1A31}" name="Vibration" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="9" xr3:uid="{EEB5743E-F4E2-461F-A268-9F2367A5D52A}" name="ML Model type2" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="18" xr3:uid="{113F1350-311E-48DD-AA1B-9A2064FE264F}" name="Objectives2"/>
+    <tableColumn id="19" xr3:uid="{E8CCA489-909A-4FDB-86A5-CF734A695DAB}" name="Dataset2"/>
+    <tableColumn id="20" xr3:uid="{256AC72D-80D9-4981-AEC6-32FB236CB539}" name="Features2"/>
+    <tableColumn id="21" xr3:uid="{4F8D3EAD-ACDE-4EA0-9E16-F9F89EBA6638}" name="Training Accuracy2" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="22" xr3:uid="{591B9CE0-8BE1-4AA9-91FE-1F755D80D92A}" name="Test Accuracy2" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="23" xr3:uid="{307D53FE-A4D9-42B7-BC44-466B3ECE1259}" name=" " dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="24" xr3:uid="{6B92DCC9-C722-4BFE-8076-E9CE064C30A1}" name="Comparison" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage">
+      <calculatedColumnFormula>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,20 +857,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56945E53-2A43-4572-B54E-D0835210C520}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" customWidth="1"/>
-    <col min="2" max="2" width="11.61328125" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="5" max="5" width="17.61328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -601,7 +910,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -621,7 +930,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -641,7 +950,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -661,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -681,7 +990,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -701,7 +1010,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -721,7 +1030,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -741,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -761,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -781,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -801,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -821,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -841,7 +1150,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -861,7 +1170,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -881,7 +1190,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -901,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -921,7 +1230,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -941,7 +1250,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -961,7 +1270,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -981,7 +1290,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1310,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1330,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1350,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1370,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1106,18 +1415,18 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="F25" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" customWidth="1"/>
-    <col min="2" max="2" width="11.61328125" customWidth="1"/>
-    <col min="5" max="5" width="17.61328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1466,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1486,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1506,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1526,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1546,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1257,7 +1566,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1586,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1606,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1626,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1686,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1706,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1726,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1746,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1766,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1497,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +1846,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1557,7 +1866,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1886,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1906,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1631,8 +1940,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1642,15 +1952,15 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="7" width="11.07421875" style="1"/>
+    <col min="6" max="7" width="11.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +2006,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1719,7 +2029,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1742,7 +2052,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1788,7 +2098,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1811,7 +2121,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +2144,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1880,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1926,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1972,7 +2282,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1995,7 +2305,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2018,7 +2328,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2041,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2374,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2397,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2110,7 +2420,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2443,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2466,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2489,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2202,7 +2512,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2535,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2248,7 +2558,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2271,7 +2581,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2604,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2627,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2340,7 +2650,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2673,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2696,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2719,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2432,7 +2742,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2455,7 +2765,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2501,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2834,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2547,7 +2857,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2880,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -2593,7 +2903,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -2616,7 +2926,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2639,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2662,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2685,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +3018,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +3041,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +3064,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2777,7 +3087,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2821,8 +3131,1073 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE40DDB-C72B-41E0-9C44-01AF2142CCE2}">
+  <dimension ref="A1:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-0.15762538382804506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>8.4087968952134468E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-2.300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>4.9317943336831108E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.59235668789808915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.11046511627906974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>8.0645161290322648E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.10132158590308367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.24324324324324312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-0.15864332603938733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-4.500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-2.300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-2.300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>-9.099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>6.7027027027026967E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.86666666666666659</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <f>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</f>
+        <v>0.14206896551724135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <f>AVERAGE(Tableau26[Test Accuracy])</f>
+        <v>0.85547368421052639</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="N22" s="1">
+        <f>AVERAGE(Tableau26[Test Accuracy2])</f>
+        <v>0.93631578947368421</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F1:H20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:P20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:G1048576 H21:H49">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{9f5c8052-b1ea-40d1-8cd5-ea0c204ca84f}" enabled="1" method="Standard" siteId="{19e51c11-d919-4a98-899d-9b9dc33f4e04}" contentBits="0" removed="0"/>
+  <clbl:label id="{9f5c8052-b1ea-40d1-8cd5-ea0c204ca84f}" enabled="1" method="Standard" siteId="{19e51c11-d919-4a98-899d-9b9dc33f4e04}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/AllResults.xlsx
+++ b/AllResults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/edouard_lambert_student_junia_com/Documents/Documents/GitHub/MLPadelProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1EF8FDCB-DCE0-44BB-A76A-76766C159E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{952C75F7-41D3-4292-9CB1-E7E86DEB9ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E0BC9278-E87C-4ABE-AEC8-50EB052ECBFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E0BC9278-E87C-4ABE-AEC8-50EB052ECBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
     <sheet name="Vibration" sheetId="2" r:id="rId2"/>
     <sheet name="Both" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparison Sound Vibration" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparison KNN RTF" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="33">
   <si>
     <t>ML Model type</t>
   </si>
@@ -144,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,20 +166,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -187,15 +249,665 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -497,7 +1209,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{544E5002-705A-4C6B-9223-9C62A0120A35}" name="Tableau24" displayName="Tableau24" ref="A1:G50" totalsRowShown="0">
-  <autoFilter ref="A1:G50" xr:uid="{544E5002-705A-4C6B-9223-9C62A0120A35}"/>
+  <autoFilter ref="A1:G50" xr:uid="{544E5002-705A-4C6B-9223-9C62A0120A35}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="RTF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{ECF41E12-9DA4-4D6E-9694-2B87A80E19CA}" name="Type of Signal"/>
     <tableColumn id="1" xr3:uid="{8800E2B5-FDB3-436D-AAF6-9EA57C38F967}" name="ML Model type"/>
@@ -520,21 +1238,59 @@
     <tableColumn id="2" xr3:uid="{BC3FA30B-9C67-4A7C-A5EC-8DEF88FDF56C}" name="Objectives"/>
     <tableColumn id="3" xr3:uid="{B50B54CA-A9B5-4F4E-AF33-437054E587AE}" name="Dataset"/>
     <tableColumn id="4" xr3:uid="{6BB42DE0-D18B-4149-8BDC-685B6D59952F}" name="Features"/>
-    <tableColumn id="5" xr3:uid="{3A4B2F57-A2DE-415C-A288-9CD8B095C2B2}" name="Training Accuracy" totalsRowDxfId="13" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="6" xr3:uid="{769D0F97-430F-47BF-8DB8-E32559B0094E}" name="Test Accuracy" totalsRowDxfId="12" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="25" xr3:uid="{14F6D664-31E4-45DF-99B9-EAD211DB1A31}" name="Vibration" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="9" xr3:uid="{EEB5743E-F4E2-461F-A268-9F2367A5D52A}" name="ML Model type2" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="5" xr3:uid="{3A4B2F57-A2DE-415C-A288-9CD8B095C2B2}" name="Training Accuracy" totalsRowDxfId="37" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="6" xr3:uid="{769D0F97-430F-47BF-8DB8-E32559B0094E}" name="Test Accuracy" totalsRowDxfId="36" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="25" xr3:uid="{14F6D664-31E4-45DF-99B9-EAD211DB1A31}" name="Vibration" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="9" xr3:uid="{EEB5743E-F4E2-461F-A268-9F2367A5D52A}" name="ML Model type2" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
     <tableColumn id="18" xr3:uid="{113F1350-311E-48DD-AA1B-9A2064FE264F}" name="Objectives2"/>
     <tableColumn id="19" xr3:uid="{E8CCA489-909A-4FDB-86A5-CF734A695DAB}" name="Dataset2"/>
     <tableColumn id="20" xr3:uid="{256AC72D-80D9-4981-AEC6-32FB236CB539}" name="Features2"/>
-    <tableColumn id="21" xr3:uid="{4F8D3EAD-ACDE-4EA0-9E16-F9F89EBA6638}" name="Training Accuracy2" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="22" xr3:uid="{591B9CE0-8BE1-4AA9-91FE-1F755D80D92A}" name="Test Accuracy2" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="23" xr3:uid="{307D53FE-A4D9-42B7-BC44-466B3ECE1259}" name=" " dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
-    <tableColumn id="24" xr3:uid="{6B92DCC9-C722-4BFE-8076-E9CE064C30A1}" name="Comparison" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage">
+    <tableColumn id="21" xr3:uid="{4F8D3EAD-ACDE-4EA0-9E16-F9F89EBA6638}" name="Training Accuracy2" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="22" xr3:uid="{591B9CE0-8BE1-4AA9-91FE-1F755D80D92A}" name="Test Accuracy2" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="23" xr3:uid="{307D53FE-A4D9-42B7-BC44-466B3ECE1259}" name=" " dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage"/>
+    <tableColumn id="24" xr3:uid="{6B92DCC9-C722-4BFE-8076-E9CE064C30A1}" name="Comparison" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Pourcentage" totalsRowCellStyle="Pourcentage">
       <calculatedColumnFormula>(Tableau26[[#This Row],[Test Accuracy2]]-Tableau26[[#This Row],[Test Accuracy]])/Tableau26[[#This Row],[Test Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CAEAF459-AF02-488B-99D8-EA22C09D3977}" name="Tableau15" displayName="Tableau15" ref="A1:G22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="A1:G22" xr:uid="{CAEAF459-AF02-488B-99D8-EA22C09D3977}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
+    <sortCondition ref="D1:D22"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5C9BE745-BBAC-4E52-B707-ADDB0CE65D8F}" name="Type of Signal" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{882F3BB1-F29E-4441-9E49-6D573525F31A}" name="ML Model type" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E1A896E4-CF63-4120-AA3C-9DFFB5012EE8}" name="Objectives" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{DD741092-82EB-4862-B7EF-D2867E66CA00}" name="Dataset" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{ACF3B2B1-9E42-4B20-BEEF-4332B444E2A0}" name="Features" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{12985B2E-7358-46CD-863E-A2EEAB6600E2}" name="Training Accuracy" dataDxfId="15" dataCellStyle="Pourcentage"/>
+    <tableColumn id="7" xr3:uid="{C80F5C50-EF5A-4A7E-96B3-2B07D665A5A0}" name="Test Accuracy" dataDxfId="14" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{38DE8948-4C17-4235-87FE-7FC1DCB72B35}" name="Tableau16" displayName="Tableau16" ref="I1:O22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="I1:O22" xr:uid="{38DE8948-4C17-4235-87FE-7FC1DCB72B35}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:O22">
+    <sortCondition ref="L1:L22"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9BC8C7CC-3329-47F3-9946-BFF097337CD8}" name="Type of Signal" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2BD8D2E5-5942-47A3-B71B-45D4FAC0BF4B}" name="ML Model type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{ABC082AD-D850-4E41-BFF8-24BAA12A2574}" name="Objectives" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CADFAA67-1C0A-48B0-AAD1-6F4387F194A5}" name="Dataset" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FE70FAC1-DE35-47C8-8387-D5A2DD87343E}" name="Features" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E761A1E7-13D7-4DC9-9181-3032B608EEC4}" name="Training Accuracy" dataDxfId="3" dataCellStyle="Pourcentage"/>
+    <tableColumn id="7" xr3:uid="{FC9E8487-35AF-4AC1-B54D-DF56F93B7FAF}" name="Test Accuracy" dataDxfId="2" dataCellStyle="Pourcentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1415,7 +2171,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,7 +2708,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G50" sqref="A1:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1983,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +2762,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +2808,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2075,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2854,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2877,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2259,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2282,7 +3038,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2305,7 +3061,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2328,7 +3084,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2351,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2374,7 +3130,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2397,7 +3153,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2420,7 +3176,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2558,7 +3314,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +3337,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +3360,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +3383,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2742,7 +3498,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2765,7 +3521,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2811,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2926,7 +3682,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2972,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2995,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -3135,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE40DDB-C72B-41E0-9C44-01AF2142CCE2}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4129,8 +4885,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F21:G1048576 H21:H49">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:H20">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4142,30 +4910,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:P20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G1048576 H21:H49">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4178,6 +4922,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G22 M2:N22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4196,6 +4964,1051 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F524C0A1-8FBE-4940-8960-59526136A10C}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <f>AVERAGE(Tableau15[Test Accuracy])</f>
+        <v>0.88376190476190486</v>
+      </c>
+      <c r="O24" s="11">
+        <f>AVERAGE(Tableau16[Test Accuracy])</f>
+        <v>0.88828571428571423</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N1:O22">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G22">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O24 F2:G24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9f5c8052-b1ea-40d1-8cd5-ea0c204ca84f}" enabled="1" method="Standard" siteId="{19e51c11-d919-4a98-899d-9b9dc33f4e04}" removed="0"/>
